--- a/test_data/tiny_44147.csv_out.xlsx
+++ b/test_data/tiny_44147.csv_out.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
-    <t xml:space="preserve">﻿"Client:Gaz de France
+    <t xml:space="preserve">﻿"Client:ABC
 </t>
   </si>
   <si>
@@ -24,15 +24,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Well No.:K/12-G8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Field:K/12
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Location:K/12-G
+    <t xml:space="preserve">"Well No.:ABC-8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Field:ABC
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Location:ABC
 </t>
   </si>
   <si>
